--- a/state_results/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
+++ b/state_results/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.0095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.011422501597285</v>
+        <v>0.0113848495233494</v>
       </c>
       <c r="H3" t="n">
         <v>0.081</v>
@@ -732,7 +732,7 @@
         <v>0.0095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.011422501597285</v>
+        <v>0.0113848495233494</v>
       </c>
       <c r="H4" t="n">
         <v>0.081</v>
@@ -813,7 +813,7 @@
         <v>0.00068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0046973565706761</v>
+        <v>0.0047000715365022</v>
       </c>
       <c r="H5" t="n">
         <v>0.0528908135267934</v>
@@ -894,7 +894,7 @@
         <v>0.00068</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0046973565706761</v>
+        <v>0.0047000715365022</v>
       </c>
       <c r="H6" t="n">
         <v>0.0528908135267934</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0016</v>
+        <v>0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0027248161645028</v>
+        <v>0.0026133997844927</v>
       </c>
       <c r="H7" t="n">
         <v>0.0345</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0016</v>
+        <v>0.001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0027248161645028</v>
+        <v>0.0026133997844927</v>
       </c>
       <c r="H8" t="n">
         <v>0.0345</v>
@@ -1130,24 +1130,24 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0055</v>
+        <v>0.00525</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0115623466652655</v>
+        <v>0.0113770347015022</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0702</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0511</v>
+        <v>0.05124</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00404</v>
+        <v>0.00335</v>
       </c>
       <c r="M9" t="n">
-        <v>0.018</v>
+        <v>0.0175</v>
       </c>
       <c r="N9" t="n">
         <v>0.04168</v>
@@ -1207,24 +1207,24 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0055</v>
+        <v>0.00525</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0115623466652655</v>
+        <v>0.0113770347015022</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0702</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0511</v>
+        <v>0.05124</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00404</v>
+        <v>0.00335</v>
       </c>
       <c r="M10" t="n">
-        <v>0.018</v>
+        <v>0.0175</v>
       </c>
       <c r="N10" t="n">
         <v>0.04168</v>
@@ -1372,7 +1372,7 @@
         <v>0.012</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0128647601121046</v>
+        <v>0.0128346823336127</v>
       </c>
       <c r="H12" t="n">
         <v>0.081</v>
@@ -1453,7 +1453,7 @@
         <v>0.012</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0128647601121046</v>
+        <v>0.0128346823336127</v>
       </c>
       <c r="H13" t="n">
         <v>0.081</v>
@@ -1534,7 +1534,7 @@
         <v>0.00076</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0043247401143816</v>
+        <v>0.0043243214908769</v>
       </c>
       <c r="H14" t="n">
         <v>0.0528908135267934</v>
@@ -1615,7 +1615,7 @@
         <v>0.00076</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0043247401143816</v>
+        <v>0.0043243214908769</v>
       </c>
       <c r="H15" t="n">
         <v>0.0528908135267934</v>
@@ -1696,7 +1696,7 @@
         <v>0.00095</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0022044241295884</v>
+        <v>0.0020987659679818</v>
       </c>
       <c r="H16" t="n">
         <v>0.0345</v>
@@ -1707,7 +1707,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>0.00045</v>
+        <v>0.00046</v>
       </c>
       <c r="M16" t="n">
         <v>0.00284</v>
@@ -1777,7 +1777,7 @@
         <v>0.00095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0022044241295884</v>
+        <v>0.0020987659679818</v>
       </c>
       <c r="H17" t="n">
         <v>0.0345</v>
@@ -1788,7 +1788,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.00045</v>
+        <v>0.00046</v>
       </c>
       <c r="M17" t="n">
         <v>0.00284</v>
@@ -1851,21 +1851,21 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.005</v>
+        <v>0.0047</v>
       </c>
       <c r="G18" t="n">
-        <v>0.010878601771181</v>
+        <v>0.0106370152232541</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0702</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0494</v>
+        <v>0.04956</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.00415</v>
+        <v>0.00366</v>
       </c>
       <c r="M18" t="n">
         <v>0.01168</v>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.005</v>
+        <v>0.0047</v>
       </c>
       <c r="G19" t="n">
-        <v>0.010878601771181</v>
+        <v>0.0106370152232541</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0702</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0494</v>
+        <v>0.04956</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.00415</v>
+        <v>0.00366</v>
       </c>
       <c r="M19" t="n">
         <v>0.01168</v>
@@ -2093,7 +2093,7 @@
         <v>0.014</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0147477273624252</v>
+        <v>0.0147401837743907</v>
       </c>
       <c r="H21" t="n">
         <v>0.081</v>
@@ -2174,7 +2174,7 @@
         <v>0.014</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0147477273624252</v>
+        <v>0.0147401837743907</v>
       </c>
       <c r="H22" t="n">
         <v>0.081</v>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.00102</v>
+        <v>0.001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0044158240549288</v>
+        <v>0.0044111112851871</v>
       </c>
       <c r="H23" t="n">
         <v>0.0528908135267934</v>
@@ -2266,7 +2266,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00073</v>
+        <v>0.00074</v>
       </c>
       <c r="M23" t="n">
         <v>0.00282</v>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.00102</v>
+        <v>0.001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0044158240549288</v>
+        <v>0.0044111112851871</v>
       </c>
       <c r="H24" t="n">
         <v>0.0528908135267934</v>
@@ -2347,7 +2347,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.00073</v>
+        <v>0.00074</v>
       </c>
       <c r="M24" t="n">
         <v>0.00282</v>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.00105</v>
+        <v>0.001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0022748768138789</v>
+        <v>0.0021641316750224</v>
       </c>
       <c r="H25" t="n">
         <v>0.0345</v>
@@ -2428,7 +2428,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.00054</v>
+        <v>0.00055</v>
       </c>
       <c r="M25" t="n">
         <v>0.003</v>
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.00105</v>
+        <v>0.001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0022748768138789</v>
+        <v>0.0021641316750224</v>
       </c>
       <c r="H26" t="n">
         <v>0.0345</v>
@@ -2509,7 +2509,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.00054</v>
+        <v>0.00055</v>
       </c>
       <c r="M26" t="n">
         <v>0.003</v>
@@ -2572,21 +2572,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.005</v>
+        <v>0.00475</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0099909959625844</v>
+        <v>0.009710239926219</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0702</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0432</v>
+        <v>0.04326</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.00469</v>
+        <v>0.00386</v>
       </c>
       <c r="M27" t="n">
         <v>0.01102</v>
@@ -2649,21 +2649,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.005</v>
+        <v>0.00475</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0099909959625844</v>
+        <v>0.009710239926219</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0702</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0432</v>
+        <v>0.04326</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.00469</v>
+        <v>0.00386</v>
       </c>
       <c r="M28" t="n">
         <v>0.01102</v>
@@ -2973,10 +2973,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.00169</v>
+        <v>0.00163</v>
       </c>
       <c r="G32" t="n">
-        <v>0.436825691577296</v>
+        <v>0.436783820531418</v>
       </c>
       <c r="H32" t="n">
         <v>17.6923076923077</v>
@@ -2987,10 +2987,10 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.00157</v>
+        <v>0.00154</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01144</v>
+        <v>0.01123</v>
       </c>
       <c r="N32" t="n">
         <v>0.02344</v>
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.00169</v>
+        <v>0.00163</v>
       </c>
       <c r="G33" t="n">
-        <v>0.436825691577296</v>
+        <v>0.436783820531418</v>
       </c>
       <c r="H33" t="n">
         <v>17.6923076923077</v>
@@ -3068,10 +3068,10 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.00157</v>
+        <v>0.00154</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01144</v>
+        <v>0.01123</v>
       </c>
       <c r="N33" t="n">
         <v>0.02344</v>
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.00072</v>
+        <v>0.00073</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0013948821216392</v>
+        <v>0.0013090121203059</v>
       </c>
       <c r="H34" t="n">
         <v>0.005</v>
@@ -3149,7 +3149,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.0007</v>
+        <v>0.00071</v>
       </c>
       <c r="M34" t="n">
         <v>0.00247</v>
@@ -3216,10 +3216,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.00072</v>
+        <v>0.00073</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0013948821216392</v>
+        <v>0.0013090121203059</v>
       </c>
       <c r="H35" t="n">
         <v>0.005</v>
@@ -3230,7 +3230,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.0007</v>
+        <v>0.00071</v>
       </c>
       <c r="M35" t="n">
         <v>0.00247</v>
@@ -3293,24 +3293,24 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.00644</v>
+        <v>0.00584</v>
       </c>
       <c r="G36" t="n">
-        <v>1.13444373945339</v>
+        <v>1.13406246598869</v>
       </c>
       <c r="H36" t="n">
         <v>50.602</v>
       </c>
       <c r="I36" t="n">
-        <v>0.052</v>
+        <v>0.0522</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.005</v>
+        <v>0.0048</v>
       </c>
       <c r="M36" t="n">
-        <v>0.01198</v>
+        <v>0.01185</v>
       </c>
       <c r="N36" t="n">
         <v>0.0259</v>
@@ -3370,24 +3370,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.00644</v>
+        <v>0.00584</v>
       </c>
       <c r="G37" t="n">
-        <v>1.13444373945339</v>
+        <v>1.13406246598869</v>
       </c>
       <c r="H37" t="n">
         <v>50.602</v>
       </c>
       <c r="I37" t="n">
-        <v>0.052</v>
+        <v>0.0522</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.005</v>
+        <v>0.0048</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01198</v>
+        <v>0.01185</v>
       </c>
       <c r="N37" t="n">
         <v>0.0259</v>
@@ -3694,27 +3694,27 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.00226</v>
+        <v>0.0022</v>
       </c>
       <c r="G41" t="n">
-        <v>0.426710408283788</v>
+        <v>0.426576543357142</v>
       </c>
       <c r="H41" t="n">
         <v>17.6923076923077</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02559</v>
+        <v>0.02518</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.00169</v>
+        <v>0.00165</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0122</v>
+        <v>0.01179</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01868</v>
+        <v>0.01833</v>
       </c>
       <c r="O41" t="n">
         <v>1838908</v>
@@ -3775,27 +3775,27 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.00226</v>
+        <v>0.0022</v>
       </c>
       <c r="G42" t="n">
-        <v>0.426710408283788</v>
+        <v>0.426576543357142</v>
       </c>
       <c r="H42" t="n">
         <v>17.6923076923077</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02559</v>
+        <v>0.02518</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.00169</v>
+        <v>0.00165</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0122</v>
+        <v>0.01179</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01868</v>
+        <v>0.01833</v>
       </c>
       <c r="O42" t="n">
         <v>1838908</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.00075</v>
+        <v>0.00076</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0012272324190803</v>
+        <v>0.0012102350402381</v>
       </c>
       <c r="H43" t="n">
         <v>0.005</v>
@@ -3870,10 +3870,10 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00071</v>
+        <v>0.00072</v>
       </c>
       <c r="M43" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="N43" t="n">
         <v>0.003</v>
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.00075</v>
+        <v>0.00076</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0012272324190803</v>
+        <v>0.0012102350402381</v>
       </c>
       <c r="H44" t="n">
         <v>0.005</v>
@@ -3951,10 +3951,10 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00071</v>
+        <v>0.00072</v>
       </c>
       <c r="M44" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="N44" t="n">
         <v>0.003</v>
@@ -4017,7 +4017,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>1.10931693088348</v>
+        <v>1.10886824001553</v>
       </c>
       <c r="H45" t="n">
         <v>50.602</v>
@@ -4031,10 +4031,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01502</v>
+        <v>0.01408</v>
       </c>
       <c r="N45" t="n">
-        <v>0.02079</v>
+        <v>0.01993</v>
       </c>
       <c r="O45" t="n">
         <v>1838908</v>
@@ -4094,7 +4094,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>1.10931693088348</v>
+        <v>1.10886824001553</v>
       </c>
       <c r="H46" t="n">
         <v>50.602</v>
@@ -4108,10 +4108,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01502</v>
+        <v>0.01408</v>
       </c>
       <c r="N46" t="n">
-        <v>0.02079</v>
+        <v>0.01993</v>
       </c>
       <c r="O46" t="n">
         <v>1838908</v>
@@ -4415,16 +4415,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.00336</v>
+        <v>0.00325</v>
       </c>
       <c r="G50" t="n">
-        <v>0.437492620674567</v>
+        <v>0.43735529010491</v>
       </c>
       <c r="H50" t="n">
         <v>17.6923076923077</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02763</v>
+        <v>0.02717</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -4432,10 +4432,10 @@
         <v>0.00383</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01227</v>
+        <v>0.01186</v>
       </c>
       <c r="N50" t="n">
-        <v>0.01973</v>
+        <v>0.01942</v>
       </c>
       <c r="O50" t="n">
         <v>1838908</v>
@@ -4496,16 +4496,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.00336</v>
+        <v>0.00325</v>
       </c>
       <c r="G51" t="n">
-        <v>0.437492620674567</v>
+        <v>0.43735529010491</v>
       </c>
       <c r="H51" t="n">
         <v>17.6923076923077</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02763</v>
+        <v>0.02717</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -4513,10 +4513,10 @@
         <v>0.00383</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01227</v>
+        <v>0.01186</v>
       </c>
       <c r="N51" t="n">
-        <v>0.01973</v>
+        <v>0.01942</v>
       </c>
       <c r="O51" t="n">
         <v>1838908</v>
@@ -4580,7 +4580,7 @@
         <v>0.00087</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0015195836373887</v>
+        <v>0.0015247305300927</v>
       </c>
       <c r="H52" t="n">
         <v>0.007</v>
@@ -4591,7 +4591,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.00088</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="M52" t="n">
         <v>0.003</v>
@@ -4661,7 +4661,7 @@
         <v>0.00087</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0015195836373887</v>
+        <v>0.0015247305300927</v>
       </c>
       <c r="H53" t="n">
         <v>0.007</v>
@@ -4672,7 +4672,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.00088</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="M53" t="n">
         <v>0.003</v>
@@ -4738,7 +4738,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>1.06429246061253</v>
+        <v>1.0639713565819</v>
       </c>
       <c r="H54" t="n">
         <v>50.602</v>
@@ -4752,10 +4752,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>0.01456</v>
+        <v>0.01363</v>
       </c>
       <c r="N54" t="n">
-        <v>0.02371</v>
+        <v>0.02342</v>
       </c>
       <c r="O54" t="n">
         <v>1838908</v>
@@ -4815,7 +4815,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>1.06429246061253</v>
+        <v>1.0639713565819</v>
       </c>
       <c r="H55" t="n">
         <v>50.602</v>
@@ -4829,10 +4829,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01456</v>
+        <v>0.01363</v>
       </c>
       <c r="N55" t="n">
-        <v>0.02371</v>
+        <v>0.02342</v>
       </c>
       <c r="O55" t="n">
         <v>1838908</v>
@@ -5136,24 +5136,24 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.00378</v>
+        <v>0.00372</v>
       </c>
       <c r="G59" t="n">
-        <v>0.427786966706446</v>
+        <v>0.427653725671211</v>
       </c>
       <c r="H59" t="n">
         <v>17.6923076923077</v>
       </c>
       <c r="I59" t="n">
-        <v>0.02743</v>
+        <v>0.02702</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.00586</v>
+        <v>0.00568</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01288</v>
+        <v>0.01248</v>
       </c>
       <c r="N59" t="n">
         <v>0.02024</v>
@@ -5217,24 +5217,24 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.00378</v>
+        <v>0.00372</v>
       </c>
       <c r="G60" t="n">
-        <v>0.427786966706446</v>
+        <v>0.427653725671211</v>
       </c>
       <c r="H60" t="n">
         <v>17.6923076923077</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02743</v>
+        <v>0.02702</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00586</v>
+        <v>0.00568</v>
       </c>
       <c r="M60" t="n">
-        <v>0.01288</v>
+        <v>0.01248</v>
       </c>
       <c r="N60" t="n">
         <v>0.02024</v>
@@ -5298,10 +5298,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.00102</v>
+        <v>0.00103</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0015153350599283</v>
+        <v>0.0015219531658587</v>
       </c>
       <c r="H61" t="n">
         <v>0.007</v>
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.00102</v>
+        <v>0.00103</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0015153350599283</v>
+        <v>0.0015219531658587</v>
       </c>
       <c r="H62" t="n">
         <v>0.007</v>
@@ -5459,7 +5459,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>1.06448956909701</v>
+        <v>1.06422070458161</v>
       </c>
       <c r="H63" t="n">
         <v>50.602</v>
@@ -5470,10 +5470,10 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.0095</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="M63" t="n">
-        <v>0.01766</v>
+        <v>0.01673</v>
       </c>
       <c r="N63" t="n">
         <v>0.02398</v>
@@ -5536,7 +5536,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>1.06448956909701</v>
+        <v>1.06422070458161</v>
       </c>
       <c r="H64" t="n">
         <v>50.602</v>
@@ -5547,10 +5547,10 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.0095</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="M64" t="n">
-        <v>0.01766</v>
+        <v>0.01673</v>
       </c>
       <c r="N64" t="n">
         <v>0.02398</v>
@@ -5857,24 +5857,24 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.00372</v>
+        <v>0.00361</v>
       </c>
       <c r="G68" t="n">
-        <v>0.383170717889605</v>
+        <v>0.38305399641797</v>
       </c>
       <c r="H68" t="n">
         <v>17.6923076923077</v>
       </c>
       <c r="I68" t="n">
-        <v>0.03078</v>
+        <v>0.0299</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.00586</v>
+        <v>0.00568</v>
       </c>
       <c r="M68" t="n">
-        <v>0.01305</v>
+        <v>0.01266</v>
       </c>
       <c r="N68" t="n">
         <v>0.02414</v>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.00372</v>
+        <v>0.00361</v>
       </c>
       <c r="G69" t="n">
-        <v>0.383170717889605</v>
+        <v>0.38305399641797</v>
       </c>
       <c r="H69" t="n">
         <v>17.6923076923077</v>
       </c>
       <c r="I69" t="n">
-        <v>0.03078</v>
+        <v>0.0299</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.00586</v>
+        <v>0.00568</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01305</v>
+        <v>0.01266</v>
       </c>
       <c r="N69" t="n">
         <v>0.02414</v>
@@ -6019,10 +6019,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.00117</v>
+        <v>0.00118</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0014675384242326</v>
+        <v>0.0014798114806265</v>
       </c>
       <c r="H70" t="n">
         <v>0.007</v>
@@ -6033,10 +6033,10 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.00111</v>
+        <v>0.0011</v>
       </c>
       <c r="M70" t="n">
-        <v>0.00188</v>
+        <v>0.00192</v>
       </c>
       <c r="N70" t="n">
         <v>0.003</v>
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.00117</v>
+        <v>0.00118</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0014675384242326</v>
+        <v>0.0014798114806265</v>
       </c>
       <c r="H71" t="n">
         <v>0.007</v>
@@ -6114,10 +6114,10 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.00111</v>
+        <v>0.0011</v>
       </c>
       <c r="M71" t="n">
-        <v>0.00188</v>
+        <v>0.00192</v>
       </c>
       <c r="N71" t="n">
         <v>0.003</v>
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.00885</v>
+        <v>0.00831</v>
       </c>
       <c r="G72" t="n">
-        <v>0.982689389479357</v>
+        <v>0.982507565213656</v>
       </c>
       <c r="H72" t="n">
         <v>50.602</v>
@@ -6194,10 +6194,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01647</v>
+        <v>0.01555</v>
       </c>
       <c r="N72" t="n">
-        <v>0.02147</v>
+        <v>0.02092</v>
       </c>
       <c r="O72" t="n">
         <v>1838908</v>
@@ -6254,10 +6254,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.00885</v>
+        <v>0.00831</v>
       </c>
       <c r="G73" t="n">
-        <v>0.982689389479357</v>
+        <v>0.982507565213656</v>
       </c>
       <c r="H73" t="n">
         <v>50.602</v>
@@ -6271,10 +6271,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M73" t="n">
-        <v>0.01647</v>
+        <v>0.01555</v>
       </c>
       <c r="N73" t="n">
-        <v>0.02147</v>
+        <v>0.02092</v>
       </c>
       <c r="O73" t="n">
         <v>1838908</v>
@@ -6334,7 +6334,7 @@
         <v>0.05</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0523223128536066</v>
+        <v>0.0523275496330669</v>
       </c>
       <c r="H74" t="n">
         <v>0.13</v>
@@ -6411,7 +6411,7 @@
         <v>0.05</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0523223128536066</v>
+        <v>0.0523275496330669</v>
       </c>
       <c r="H75" t="n">
         <v>0.13</v>
@@ -6616,6 +6616,1035 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>168.663793103448</v>
+      </c>
+      <c r="H78" t="n">
+        <v>440</v>
+      </c>
+      <c r="I78" t="n">
+        <v>308</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>180</v>
+      </c>
+      <c r="M78" t="n">
+        <v>233.2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>275</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0125192307692308</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0259</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.02368</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0125192307692308</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0259</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.02368</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00281</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0058380233983024</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0362045582721472</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.02613</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.01107</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.01874</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.00281</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0058380233983024</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0362045582721472</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.02613</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.01107</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.01874</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0015319372094318</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0015319372094318</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0082469282836771</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.02022</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.01278</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.01833</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0082469282836771</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.02022</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.01278</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.01833</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.05575</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.05575</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.0253</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Moawhango at Waiouru</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0253</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1838908</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5631468</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Rang_2d</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
+++ b/state_results/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="59">
   <si>
     <t>site name</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +633,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>85</v>
@@ -645,7 +648,7 @@
         <v>189.5</v>
       </c>
       <c r="L2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M2">
         <v>110.1</v>
@@ -660,19 +663,19 @@
         <v>5631468</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -689,13 +692,13 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>0.0095</v>
       </c>
       <c r="G3">
-        <v>0.0113848495233494</v>
+        <v>0.0114152195510899</v>
       </c>
       <c r="H3">
         <v>0.081</v>
@@ -719,19 +722,19 @@
         <v>5631468</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -748,13 +751,13 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>0.0095</v>
       </c>
       <c r="G4">
-        <v>0.0113848495233494</v>
+        <v>0.0114152195510899</v>
       </c>
       <c r="H4">
         <v>0.081</v>
@@ -778,19 +781,19 @@
         <v>5631468</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -807,13 +810,13 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>0.00068</v>
       </c>
       <c r="G5">
-        <v>0.0047000715365022</v>
+        <v>0.0047235482494346</v>
       </c>
       <c r="H5">
         <v>0.0528908135267934</v>
@@ -822,7 +825,7 @@
         <v>0.02534</v>
       </c>
       <c r="L5">
-        <v>0.00058</v>
+        <v>0.00059</v>
       </c>
       <c r="M5">
         <v>0.00476</v>
@@ -837,19 +840,19 @@
         <v>5631468</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -866,13 +869,13 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>0.00068</v>
       </c>
       <c r="G6">
-        <v>0.0047000715365022</v>
+        <v>0.0047235482494346</v>
       </c>
       <c r="H6">
         <v>0.0528908135267934</v>
@@ -881,7 +884,7 @@
         <v>0.02534</v>
       </c>
       <c r="L6">
-        <v>0.00058</v>
+        <v>0.00059</v>
       </c>
       <c r="M6">
         <v>0.00476</v>
@@ -896,19 +899,19 @@
         <v>5631468</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -925,13 +928,13 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>0.001</v>
       </c>
       <c r="G7">
-        <v>0.0026133997844927</v>
+        <v>0.0025806973195633</v>
       </c>
       <c r="H7">
         <v>0.0345</v>
@@ -940,7 +943,7 @@
         <v>0.0086</v>
       </c>
       <c r="L7">
-        <v>0.00043</v>
+        <v>0.0005</v>
       </c>
       <c r="M7">
         <v>0.004</v>
@@ -955,19 +958,19 @@
         <v>5631468</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -984,13 +987,13 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>0.001</v>
       </c>
       <c r="G8">
-        <v>0.0026133997844927</v>
+        <v>0.0025806973195633</v>
       </c>
       <c r="H8">
         <v>0.0345</v>
@@ -999,7 +1002,7 @@
         <v>0.0086</v>
       </c>
       <c r="L8">
-        <v>0.00043</v>
+        <v>0.0005</v>
       </c>
       <c r="M8">
         <v>0.004</v>
@@ -1014,19 +1017,19 @@
         <v>5631468</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1040,13 +1043,13 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9">
-        <v>0.00525</v>
+        <v>0.0049</v>
       </c>
       <c r="G9">
-        <v>0.0113770347015022</v>
+        <v>0.0112609762353025</v>
       </c>
       <c r="H9">
         <v>0.0702</v>
@@ -1055,7 +1058,7 @@
         <v>0.05124</v>
       </c>
       <c r="L9">
-        <v>0.00335</v>
+        <v>0.0045</v>
       </c>
       <c r="M9">
         <v>0.0175</v>
@@ -1070,19 +1073,19 @@
         <v>5631468</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1096,13 +1099,13 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10">
-        <v>0.00525</v>
+        <v>0.0049</v>
       </c>
       <c r="G10">
-        <v>0.0113770347015022</v>
+        <v>0.0112609762353025</v>
       </c>
       <c r="H10">
         <v>0.0702</v>
@@ -1111,7 +1114,7 @@
         <v>0.05124</v>
       </c>
       <c r="L10">
-        <v>0.00335</v>
+        <v>0.0045</v>
       </c>
       <c r="M10">
         <v>0.0175</v>
@@ -1126,19 +1129,19 @@
         <v>5631468</v>
       </c>
       <c r="Q10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1155,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>90</v>
@@ -1185,19 +1188,19 @@
         <v>5631468</v>
       </c>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1214,13 +1217,13 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>0.012</v>
       </c>
       <c r="G12">
-        <v>0.0128346823336127</v>
+        <v>0.012844363498369</v>
       </c>
       <c r="H12">
         <v>0.081</v>
@@ -1244,19 +1247,19 @@
         <v>5631468</v>
       </c>
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1273,13 +1276,13 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>0.012</v>
       </c>
       <c r="G13">
-        <v>0.0128346823336127</v>
+        <v>0.012844363498369</v>
       </c>
       <c r="H13">
         <v>0.081</v>
@@ -1303,19 +1306,19 @@
         <v>5631468</v>
       </c>
       <c r="Q13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1332,13 +1335,13 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14">
-        <v>0.00076</v>
+        <v>0.00083</v>
       </c>
       <c r="G14">
-        <v>0.0043243214908769</v>
+        <v>0.004363123393408</v>
       </c>
       <c r="H14">
         <v>0.0528908135267934</v>
@@ -1347,7 +1350,7 @@
         <v>0.02489</v>
       </c>
       <c r="L14">
-        <v>0.00061</v>
+        <v>0.00067</v>
       </c>
       <c r="M14">
         <v>0.00272</v>
@@ -1362,19 +1365,19 @@
         <v>5631468</v>
       </c>
       <c r="Q14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1391,13 +1394,13 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15">
-        <v>0.00076</v>
+        <v>0.00083</v>
       </c>
       <c r="G15">
-        <v>0.0043243214908769</v>
+        <v>0.004363123393408</v>
       </c>
       <c r="H15">
         <v>0.0528908135267934</v>
@@ -1406,7 +1409,7 @@
         <v>0.02489</v>
       </c>
       <c r="L15">
-        <v>0.00061</v>
+        <v>0.00067</v>
       </c>
       <c r="M15">
         <v>0.00272</v>
@@ -1421,19 +1424,19 @@
         <v>5631468</v>
       </c>
       <c r="Q15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1450,13 +1453,13 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16">
         <v>0.00095</v>
       </c>
       <c r="G16">
-        <v>0.0020987659679818</v>
+        <v>0.0020470412238244</v>
       </c>
       <c r="H16">
         <v>0.0345</v>
@@ -1465,7 +1468,7 @@
         <v>0.0056</v>
       </c>
       <c r="L16">
-        <v>0.00046</v>
+        <v>0.00029</v>
       </c>
       <c r="M16">
         <v>0.00284</v>
@@ -1480,19 +1483,19 @@
         <v>5631468</v>
       </c>
       <c r="Q16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1509,13 +1512,13 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17">
         <v>0.00095</v>
       </c>
       <c r="G17">
-        <v>0.0020987659679818</v>
+        <v>0.0020470412238244</v>
       </c>
       <c r="H17">
         <v>0.0345</v>
@@ -1524,7 +1527,7 @@
         <v>0.0056</v>
       </c>
       <c r="L17">
-        <v>0.00046</v>
+        <v>0.00029</v>
       </c>
       <c r="M17">
         <v>0.00284</v>
@@ -1539,19 +1542,19 @@
         <v>5631468</v>
       </c>
       <c r="Q17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1565,13 +1568,13 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>0.0047</v>
+        <v>0.00468</v>
       </c>
       <c r="G18">
-        <v>0.0106370152232541</v>
+        <v>0.0104677033954975</v>
       </c>
       <c r="H18">
         <v>0.0702</v>
@@ -1580,7 +1583,7 @@
         <v>0.04956</v>
       </c>
       <c r="L18">
-        <v>0.00366</v>
+        <v>0.00367</v>
       </c>
       <c r="M18">
         <v>0.01168</v>
@@ -1595,19 +1598,19 @@
         <v>5631468</v>
       </c>
       <c r="Q18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1621,13 +1624,13 @@
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19">
-        <v>0.0047</v>
+        <v>0.00468</v>
       </c>
       <c r="G19">
-        <v>0.0106370152232541</v>
+        <v>0.0104677033954975</v>
       </c>
       <c r="H19">
         <v>0.0702</v>
@@ -1636,7 +1639,7 @@
         <v>0.04956</v>
       </c>
       <c r="L19">
-        <v>0.00366</v>
+        <v>0.00367</v>
       </c>
       <c r="M19">
         <v>0.01168</v>
@@ -1651,19 +1654,19 @@
         <v>5631468</v>
       </c>
       <c r="Q19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1680,7 +1683,7 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>90</v>
@@ -1695,7 +1698,7 @@
         <v>231</v>
       </c>
       <c r="L20">
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="M20">
         <v>155.2</v>
@@ -1710,19 +1713,19 @@
         <v>5631468</v>
       </c>
       <c r="Q20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1739,13 +1742,13 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>0.014</v>
       </c>
       <c r="G21">
-        <v>0.0147401837743907</v>
+        <v>0.0147392946500312</v>
       </c>
       <c r="H21">
         <v>0.081</v>
@@ -1769,19 +1772,19 @@
         <v>5631468</v>
       </c>
       <c r="Q21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1798,13 +1801,13 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22">
         <v>0.014</v>
       </c>
       <c r="G22">
-        <v>0.0147401837743907</v>
+        <v>0.0147392946500312</v>
       </c>
       <c r="H22">
         <v>0.081</v>
@@ -1828,19 +1831,19 @@
         <v>5631468</v>
       </c>
       <c r="Q22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1857,13 +1860,13 @@
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23">
-        <v>0.001</v>
+        <v>0.00102</v>
       </c>
       <c r="G23">
-        <v>0.0044111112851871</v>
+        <v>0.0044562075804126</v>
       </c>
       <c r="H23">
         <v>0.0528908135267934</v>
@@ -1872,7 +1875,7 @@
         <v>0.02444</v>
       </c>
       <c r="L23">
-        <v>0.00074</v>
+        <v>0.00087</v>
       </c>
       <c r="M23">
         <v>0.00282</v>
@@ -1887,19 +1890,19 @@
         <v>5631468</v>
       </c>
       <c r="Q23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1916,13 +1919,13 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24">
-        <v>0.001</v>
+        <v>0.00102</v>
       </c>
       <c r="G24">
-        <v>0.0044111112851871</v>
+        <v>0.0044562075804126</v>
       </c>
       <c r="H24">
         <v>0.0528908135267934</v>
@@ -1931,7 +1934,7 @@
         <v>0.02444</v>
       </c>
       <c r="L24">
-        <v>0.00074</v>
+        <v>0.00087</v>
       </c>
       <c r="M24">
         <v>0.00282</v>
@@ -1946,19 +1949,19 @@
         <v>5631468</v>
       </c>
       <c r="Q24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1975,13 +1978,13 @@
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25">
         <v>0.001</v>
       </c>
       <c r="G25">
-        <v>0.0021641316750224</v>
+        <v>0.0021057213029459</v>
       </c>
       <c r="H25">
         <v>0.0345</v>
@@ -1990,7 +1993,7 @@
         <v>0.005</v>
       </c>
       <c r="L25">
-        <v>0.00055</v>
+        <v>0.0007</v>
       </c>
       <c r="M25">
         <v>0.003</v>
@@ -2005,19 +2008,19 @@
         <v>5631468</v>
       </c>
       <c r="Q25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2034,13 +2037,13 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26">
         <v>0.001</v>
       </c>
       <c r="G26">
-        <v>0.0021641316750224</v>
+        <v>0.0021057213029459</v>
       </c>
       <c r="H26">
         <v>0.0345</v>
@@ -2049,7 +2052,7 @@
         <v>0.005</v>
       </c>
       <c r="L26">
-        <v>0.00055</v>
+        <v>0.0007</v>
       </c>
       <c r="M26">
         <v>0.003</v>
@@ -2064,19 +2067,19 @@
         <v>5631468</v>
       </c>
       <c r="Q26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2090,13 +2093,13 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27">
-        <v>0.00475</v>
+        <v>0.00467</v>
       </c>
       <c r="G27">
-        <v>0.009710239926219</v>
+        <v>0.0095102813205799</v>
       </c>
       <c r="H27">
         <v>0.0702</v>
@@ -2105,7 +2108,7 @@
         <v>0.04326</v>
       </c>
       <c r="L27">
-        <v>0.00386</v>
+        <v>0.00457</v>
       </c>
       <c r="M27">
         <v>0.01102</v>
@@ -2120,19 +2123,19 @@
         <v>5631468</v>
       </c>
       <c r="Q27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2146,13 +2149,13 @@
         <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28">
-        <v>0.00475</v>
+        <v>0.00467</v>
       </c>
       <c r="G28">
-        <v>0.009710239926219</v>
+        <v>0.0095102813205799</v>
       </c>
       <c r="H28">
         <v>0.0702</v>
@@ -2161,7 +2164,7 @@
         <v>0.04326</v>
       </c>
       <c r="L28">
-        <v>0.00386</v>
+        <v>0.00457</v>
       </c>
       <c r="M28">
         <v>0.01102</v>
@@ -2176,19 +2179,19 @@
         <v>5631468</v>
       </c>
       <c r="Q28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2205,7 +2208,7 @@
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29">
         <v>105</v>
@@ -2220,7 +2223,7 @@
         <v>245</v>
       </c>
       <c r="L29">
-        <v>92.5</v>
+        <v>100</v>
       </c>
       <c r="M29">
         <v>175.5</v>
@@ -2235,19 +2238,19 @@
         <v>5631468</v>
       </c>
       <c r="Q29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2264,7 +2267,7 @@
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F30">
         <v>0.013</v>
@@ -2294,19 +2297,19 @@
         <v>5631468</v>
       </c>
       <c r="Q30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2323,7 +2326,7 @@
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31">
         <v>0.013</v>
@@ -2353,19 +2356,19 @@
         <v>5631468</v>
       </c>
       <c r="Q31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2382,13 +2385,13 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F32">
-        <v>0.00163</v>
+        <v>0.00169</v>
       </c>
       <c r="G32">
-        <v>0.436783820531418</v>
+        <v>0.436874012182039</v>
       </c>
       <c r="H32">
         <v>17.6923076923077</v>
@@ -2397,10 +2400,10 @@
         <v>0.03799</v>
       </c>
       <c r="L32">
-        <v>0.00154</v>
+        <v>0.00169</v>
       </c>
       <c r="M32">
-        <v>0.01123</v>
+        <v>0.0114</v>
       </c>
       <c r="N32">
         <v>0.02344</v>
@@ -2412,19 +2415,19 @@
         <v>5631468</v>
       </c>
       <c r="Q32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2441,13 +2444,13 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33">
-        <v>0.00163</v>
+        <v>0.00169</v>
       </c>
       <c r="G33">
-        <v>0.436783820531418</v>
+        <v>0.436874012182039</v>
       </c>
       <c r="H33">
         <v>17.6923076923077</v>
@@ -2456,10 +2459,10 @@
         <v>0.03799</v>
       </c>
       <c r="L33">
-        <v>0.00154</v>
+        <v>0.00169</v>
       </c>
       <c r="M33">
-        <v>0.01123</v>
+        <v>0.0114</v>
       </c>
       <c r="N33">
         <v>0.02344</v>
@@ -2471,19 +2474,19 @@
         <v>5631468</v>
       </c>
       <c r="Q33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2500,13 +2503,13 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F34">
-        <v>0.00073</v>
+        <v>0.0005</v>
       </c>
       <c r="G34">
-        <v>0.0013090121203059</v>
+        <v>0.0012078059075955</v>
       </c>
       <c r="H34">
         <v>0.005</v>
@@ -2515,7 +2518,7 @@
         <v>0.005</v>
       </c>
       <c r="L34">
-        <v>0.00071</v>
+        <v>0.00048</v>
       </c>
       <c r="M34">
         <v>0.00247</v>
@@ -2530,19 +2533,19 @@
         <v>5631468</v>
       </c>
       <c r="Q34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2559,13 +2562,13 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F35">
-        <v>0.00073</v>
+        <v>0.0005</v>
       </c>
       <c r="G35">
-        <v>0.0013090121203059</v>
+        <v>0.0012078059075955</v>
       </c>
       <c r="H35">
         <v>0.005</v>
@@ -2574,7 +2577,7 @@
         <v>0.005</v>
       </c>
       <c r="L35">
-        <v>0.00071</v>
+        <v>0.00048</v>
       </c>
       <c r="M35">
         <v>0.00247</v>
@@ -2589,19 +2592,19 @@
         <v>5631468</v>
       </c>
       <c r="Q35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2615,13 +2618,13 @@
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F36">
-        <v>0.00584</v>
+        <v>0.00506</v>
       </c>
       <c r="G36">
-        <v>1.13406246598869</v>
+        <v>1.13373491078213</v>
       </c>
       <c r="H36">
         <v>50.602</v>
@@ -2630,7 +2633,7 @@
         <v>0.0522</v>
       </c>
       <c r="L36">
-        <v>0.0048</v>
+        <v>0.00626</v>
       </c>
       <c r="M36">
         <v>0.01185</v>
@@ -2645,19 +2648,19 @@
         <v>5631468</v>
       </c>
       <c r="Q36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2671,13 +2674,13 @@
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F37">
-        <v>0.00584</v>
+        <v>0.00506</v>
       </c>
       <c r="G37">
-        <v>1.13406246598869</v>
+        <v>1.13373491078213</v>
       </c>
       <c r="H37">
         <v>50.602</v>
@@ -2686,7 +2689,7 @@
         <v>0.0522</v>
       </c>
       <c r="L37">
-        <v>0.0048</v>
+        <v>0.00626</v>
       </c>
       <c r="M37">
         <v>0.01185</v>
@@ -2701,19 +2704,19 @@
         <v>5631468</v>
       </c>
       <c r="Q37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2730,7 +2733,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38">
         <v>127.5</v>
@@ -2745,7 +2748,7 @@
         <v>245</v>
       </c>
       <c r="L38">
-        <v>92.5</v>
+        <v>125</v>
       </c>
       <c r="M38">
         <v>220</v>
@@ -2760,19 +2763,19 @@
         <v>5631468</v>
       </c>
       <c r="Q38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2789,7 +2792,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <v>0.011</v>
@@ -2819,19 +2822,19 @@
         <v>5631468</v>
       </c>
       <c r="Q39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2848,7 +2851,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40">
         <v>0.011</v>
@@ -2878,19 +2881,19 @@
         <v>5631468</v>
       </c>
       <c r="Q40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2907,28 +2910,28 @@
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41">
-        <v>0.0022</v>
+        <v>0.00233</v>
       </c>
       <c r="G41">
-        <v>0.426576543357142</v>
+        <v>0.426599620282509</v>
       </c>
       <c r="H41">
         <v>17.6923076923077</v>
       </c>
       <c r="I41">
-        <v>0.02518</v>
+        <v>0.02531</v>
       </c>
       <c r="L41">
-        <v>0.00165</v>
+        <v>0.00289</v>
       </c>
       <c r="M41">
-        <v>0.01179</v>
+        <v>0.01173</v>
       </c>
       <c r="N41">
-        <v>0.01833</v>
+        <v>0.01775</v>
       </c>
       <c r="O41">
         <v>1838908</v>
@@ -2937,19 +2940,19 @@
         <v>5631468</v>
       </c>
       <c r="Q41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2966,28 +2969,28 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42">
-        <v>0.0022</v>
+        <v>0.00233</v>
       </c>
       <c r="G42">
-        <v>0.426576543357142</v>
+        <v>0.426599620282509</v>
       </c>
       <c r="H42">
         <v>17.6923076923077</v>
       </c>
       <c r="I42">
-        <v>0.02518</v>
+        <v>0.02531</v>
       </c>
       <c r="L42">
-        <v>0.00165</v>
+        <v>0.00289</v>
       </c>
       <c r="M42">
-        <v>0.01179</v>
+        <v>0.01173</v>
       </c>
       <c r="N42">
-        <v>0.01833</v>
+        <v>0.01775</v>
       </c>
       <c r="O42">
         <v>1838908</v>
@@ -2996,19 +2999,19 @@
         <v>5631468</v>
       </c>
       <c r="Q42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3025,13 +3028,13 @@
         <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43">
-        <v>0.00076</v>
+        <v>0.00052</v>
       </c>
       <c r="G43">
-        <v>0.0012102350402381</v>
+        <v>0.0010538316567172</v>
       </c>
       <c r="H43">
         <v>0.005</v>
@@ -3040,7 +3043,7 @@
         <v>0.005</v>
       </c>
       <c r="L43">
-        <v>0.00072</v>
+        <v>0.00049</v>
       </c>
       <c r="M43">
         <v>0.0019</v>
@@ -3055,19 +3058,19 @@
         <v>5631468</v>
       </c>
       <c r="Q43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3084,13 +3087,13 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F44">
-        <v>0.00076</v>
+        <v>0.00052</v>
       </c>
       <c r="G44">
-        <v>0.0012102350402381</v>
+        <v>0.0010538316567172</v>
       </c>
       <c r="H44">
         <v>0.005</v>
@@ -3099,7 +3102,7 @@
         <v>0.005</v>
       </c>
       <c r="L44">
-        <v>0.00072</v>
+        <v>0.00049</v>
       </c>
       <c r="M44">
         <v>0.0019</v>
@@ -3114,19 +3117,19 @@
         <v>5631468</v>
       </c>
       <c r="Q44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3140,13 +3143,13 @@
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45">
-        <v>0.008999999999999999</v>
+        <v>0.008710000000000001</v>
       </c>
       <c r="G45">
-        <v>1.10886824001553</v>
+        <v>1.10843205453942</v>
       </c>
       <c r="H45">
         <v>50.602</v>
@@ -3158,10 +3161,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M45">
-        <v>0.01408</v>
+        <v>0.01315</v>
       </c>
       <c r="N45">
-        <v>0.01993</v>
+        <v>0.01924</v>
       </c>
       <c r="O45">
         <v>1838908</v>
@@ -3170,19 +3173,19 @@
         <v>5631468</v>
       </c>
       <c r="Q45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3196,13 +3199,13 @@
         <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46">
-        <v>0.008999999999999999</v>
+        <v>0.008710000000000001</v>
       </c>
       <c r="G46">
-        <v>1.10886824001553</v>
+        <v>1.10843205453942</v>
       </c>
       <c r="H46">
         <v>50.602</v>
@@ -3214,10 +3217,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M46">
-        <v>0.01408</v>
+        <v>0.01315</v>
       </c>
       <c r="N46">
-        <v>0.01993</v>
+        <v>0.01924</v>
       </c>
       <c r="O46">
         <v>1838908</v>
@@ -3226,19 +3229,19 @@
         <v>5631468</v>
       </c>
       <c r="Q46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3255,7 +3258,7 @@
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47">
         <v>150</v>
@@ -3270,7 +3273,7 @@
         <v>266</v>
       </c>
       <c r="L47">
-        <v>135</v>
+        <v>142.5</v>
       </c>
       <c r="M47">
         <v>225</v>
@@ -3285,19 +3288,19 @@
         <v>5631468</v>
       </c>
       <c r="Q47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3314,7 +3317,7 @@
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48">
         <v>0.01</v>
@@ -3344,19 +3347,19 @@
         <v>5631468</v>
       </c>
       <c r="Q48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3373,7 +3376,7 @@
         <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49">
         <v>0.01</v>
@@ -3403,19 +3406,19 @@
         <v>5631468</v>
       </c>
       <c r="Q49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3432,28 +3435,28 @@
         <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50">
-        <v>0.00325</v>
+        <v>0.0033</v>
       </c>
       <c r="G50">
-        <v>0.43735529010491</v>
+        <v>0.437373934283413</v>
       </c>
       <c r="H50">
         <v>17.6923076923077</v>
       </c>
       <c r="I50">
-        <v>0.02717</v>
+        <v>0.02731</v>
       </c>
       <c r="L50">
-        <v>0.00383</v>
+        <v>0.00475</v>
       </c>
       <c r="M50">
-        <v>0.01186</v>
+        <v>0.01191</v>
       </c>
       <c r="N50">
-        <v>0.01942</v>
+        <v>0.01889</v>
       </c>
       <c r="O50">
         <v>1838908</v>
@@ -3462,19 +3465,19 @@
         <v>5631468</v>
       </c>
       <c r="Q50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3491,28 +3494,28 @@
         <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51">
-        <v>0.00325</v>
+        <v>0.0033</v>
       </c>
       <c r="G51">
-        <v>0.43735529010491</v>
+        <v>0.437373934283413</v>
       </c>
       <c r="H51">
         <v>17.6923076923077</v>
       </c>
       <c r="I51">
-        <v>0.02717</v>
+        <v>0.02731</v>
       </c>
       <c r="L51">
-        <v>0.00383</v>
+        <v>0.00475</v>
       </c>
       <c r="M51">
-        <v>0.01186</v>
+        <v>0.01191</v>
       </c>
       <c r="N51">
-        <v>0.01942</v>
+        <v>0.01889</v>
       </c>
       <c r="O51">
         <v>1838908</v>
@@ -3521,19 +3524,19 @@
         <v>5631468</v>
       </c>
       <c r="Q51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3550,13 +3553,13 @@
         <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F52">
-        <v>0.00087</v>
+        <v>0.00061</v>
       </c>
       <c r="G52">
-        <v>0.0015247305300927</v>
+        <v>0.0013486422750957</v>
       </c>
       <c r="H52">
         <v>0.007</v>
@@ -3565,7 +3568,7 @@
         <v>0.005</v>
       </c>
       <c r="L52">
-        <v>0.0008899999999999999</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="M52">
         <v>0.003</v>
@@ -3580,19 +3583,19 @@
         <v>5631468</v>
       </c>
       <c r="Q52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3609,13 +3612,13 @@
         <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53">
-        <v>0.00087</v>
+        <v>0.00061</v>
       </c>
       <c r="G53">
-        <v>0.0015247305300927</v>
+        <v>0.0013486422750957</v>
       </c>
       <c r="H53">
         <v>0.007</v>
@@ -3624,7 +3627,7 @@
         <v>0.005</v>
       </c>
       <c r="L53">
-        <v>0.0008899999999999999</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="M53">
         <v>0.003</v>
@@ -3639,19 +3642,19 @@
         <v>5631468</v>
       </c>
       <c r="Q53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3665,28 +3668,28 @@
         <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54">
         <v>0.008999999999999999</v>
       </c>
       <c r="G54">
-        <v>1.0639713565819</v>
+        <v>1.06340212361062</v>
       </c>
       <c r="H54">
         <v>50.602</v>
       </c>
       <c r="I54">
-        <v>0.0271</v>
+        <v>0.0268</v>
       </c>
       <c r="L54">
         <v>0.008999999999999999</v>
       </c>
       <c r="M54">
-        <v>0.01363</v>
+        <v>0.0132</v>
       </c>
       <c r="N54">
-        <v>0.02342</v>
+        <v>0.02316</v>
       </c>
       <c r="O54">
         <v>1838908</v>
@@ -3695,19 +3698,19 @@
         <v>5631468</v>
       </c>
       <c r="Q54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3721,28 +3724,28 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55">
         <v>0.008999999999999999</v>
       </c>
       <c r="G55">
-        <v>1.0639713565819</v>
+        <v>1.06340212361062</v>
       </c>
       <c r="H55">
         <v>50.602</v>
       </c>
       <c r="I55">
-        <v>0.0271</v>
+        <v>0.0268</v>
       </c>
       <c r="L55">
         <v>0.008999999999999999</v>
       </c>
       <c r="M55">
-        <v>0.01363</v>
+        <v>0.0132</v>
       </c>
       <c r="N55">
-        <v>0.02342</v>
+        <v>0.02316</v>
       </c>
       <c r="O55">
         <v>1838908</v>
@@ -3751,19 +3754,19 @@
         <v>5631468</v>
       </c>
       <c r="Q55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3780,7 +3783,7 @@
         <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F56">
         <v>155</v>
@@ -3795,7 +3798,7 @@
         <v>275</v>
       </c>
       <c r="L56">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="M56">
         <v>225</v>
@@ -3810,19 +3813,19 @@
         <v>5631468</v>
       </c>
       <c r="Q56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3839,28 +3842,28 @@
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F57">
         <v>0.008999999999999999</v>
       </c>
       <c r="G57">
-        <v>0.115645833333333</v>
+        <v>0.107365384615385</v>
       </c>
       <c r="H57">
         <v>5.09</v>
       </c>
       <c r="I57">
-        <v>0.0252</v>
+        <v>0.0246</v>
       </c>
       <c r="L57">
-        <v>0.0095</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M57">
         <v>0.013</v>
       </c>
       <c r="N57">
-        <v>0.01998</v>
+        <v>0.01902</v>
       </c>
       <c r="O57">
         <v>1838908</v>
@@ -3869,19 +3872,19 @@
         <v>5631468</v>
       </c>
       <c r="Q57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3898,28 +3901,28 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F58">
         <v>0.008999999999999999</v>
       </c>
       <c r="G58">
-        <v>0.115645833333333</v>
+        <v>0.107365384615385</v>
       </c>
       <c r="H58">
         <v>5.09</v>
       </c>
       <c r="I58">
-        <v>0.0252</v>
+        <v>0.0246</v>
       </c>
       <c r="L58">
-        <v>0.0095</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M58">
         <v>0.013</v>
       </c>
       <c r="N58">
-        <v>0.01998</v>
+        <v>0.01902</v>
       </c>
       <c r="O58">
         <v>1838908</v>
@@ -3928,19 +3931,19 @@
         <v>5631468</v>
       </c>
       <c r="Q58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3957,28 +3960,28 @@
         <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F59">
-        <v>0.00372</v>
+        <v>0.00378</v>
       </c>
       <c r="G59">
-        <v>0.427653725671211</v>
+        <v>0.390843547539191</v>
       </c>
       <c r="H59">
         <v>17.6923076923077</v>
       </c>
       <c r="I59">
-        <v>0.02702</v>
+        <v>0.02649</v>
       </c>
       <c r="L59">
-        <v>0.00568</v>
+        <v>0.00575</v>
       </c>
       <c r="M59">
-        <v>0.01248</v>
+        <v>0.01206</v>
       </c>
       <c r="N59">
-        <v>0.02024</v>
+        <v>0.0189</v>
       </c>
       <c r="O59">
         <v>1838908</v>
@@ -3987,19 +3990,19 @@
         <v>5631468</v>
       </c>
       <c r="Q59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4016,28 +4019,28 @@
         <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F60">
-        <v>0.00372</v>
+        <v>0.00378</v>
       </c>
       <c r="G60">
-        <v>0.427653725671211</v>
+        <v>0.390843547539191</v>
       </c>
       <c r="H60">
         <v>17.6923076923077</v>
       </c>
       <c r="I60">
-        <v>0.02702</v>
+        <v>0.02649</v>
       </c>
       <c r="L60">
-        <v>0.00568</v>
+        <v>0.00575</v>
       </c>
       <c r="M60">
-        <v>0.01248</v>
+        <v>0.01206</v>
       </c>
       <c r="N60">
-        <v>0.02024</v>
+        <v>0.0189</v>
       </c>
       <c r="O60">
         <v>1838908</v>
@@ -4046,19 +4049,19 @@
         <v>5631468</v>
       </c>
       <c r="Q60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4075,28 +4078,28 @@
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61">
-        <v>0.00103</v>
+        <v>0.00078</v>
       </c>
       <c r="G61">
-        <v>0.0015219531658587</v>
+        <v>0.0012990937781109</v>
       </c>
       <c r="H61">
         <v>0.007</v>
       </c>
       <c r="I61">
-        <v>0.005</v>
+        <v>0.0049</v>
       </c>
       <c r="L61">
-        <v>0.00108</v>
+        <v>0.00078</v>
       </c>
       <c r="M61">
-        <v>0.003</v>
+        <v>0.00266</v>
       </c>
       <c r="N61">
-        <v>0.00366</v>
+        <v>0.00334</v>
       </c>
       <c r="O61">
         <v>1838908</v>
@@ -4105,19 +4108,19 @@
         <v>5631468</v>
       </c>
       <c r="Q61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4134,28 +4137,28 @@
         <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F62">
-        <v>0.00103</v>
+        <v>0.00078</v>
       </c>
       <c r="G62">
-        <v>0.0015219531658587</v>
+        <v>0.0012990937781109</v>
       </c>
       <c r="H62">
         <v>0.007</v>
       </c>
       <c r="I62">
-        <v>0.005</v>
+        <v>0.0049</v>
       </c>
       <c r="L62">
-        <v>0.00108</v>
+        <v>0.00078</v>
       </c>
       <c r="M62">
-        <v>0.003</v>
+        <v>0.00266</v>
       </c>
       <c r="N62">
-        <v>0.00366</v>
+        <v>0.00334</v>
       </c>
       <c r="O62">
         <v>1838908</v>
@@ -4164,19 +4167,19 @@
         <v>5631468</v>
       </c>
       <c r="Q62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4190,28 +4193,28 @@
         <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63">
-        <v>0.008999999999999999</v>
+        <v>0.00821</v>
       </c>
       <c r="G63">
-        <v>1.06422070458161</v>
+        <v>0.982112832163419</v>
       </c>
       <c r="H63">
         <v>50.602</v>
       </c>
       <c r="I63">
-        <v>0.0271</v>
+        <v>0.0259</v>
       </c>
       <c r="L63">
-        <v>0.009169999999999999</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M63">
-        <v>0.01673</v>
+        <v>0.01464</v>
       </c>
       <c r="N63">
-        <v>0.02398</v>
+        <v>0.02142</v>
       </c>
       <c r="O63">
         <v>1838908</v>
@@ -4220,19 +4223,19 @@
         <v>5631468</v>
       </c>
       <c r="Q63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4246,28 +4249,28 @@
         <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F64">
-        <v>0.008999999999999999</v>
+        <v>0.00821</v>
       </c>
       <c r="G64">
-        <v>1.06422070458161</v>
+        <v>0.982112832163419</v>
       </c>
       <c r="H64">
         <v>50.602</v>
       </c>
       <c r="I64">
-        <v>0.0271</v>
+        <v>0.0259</v>
       </c>
       <c r="L64">
-        <v>0.009169999999999999</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M64">
-        <v>0.01673</v>
+        <v>0.01464</v>
       </c>
       <c r="N64">
-        <v>0.02398</v>
+        <v>0.02142</v>
       </c>
       <c r="O64">
         <v>1838908</v>
@@ -4276,19 +4279,19 @@
         <v>5631468</v>
       </c>
       <c r="Q64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4305,7 +4308,7 @@
         <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F65">
         <v>157.5</v>
@@ -4320,7 +4323,7 @@
         <v>275</v>
       </c>
       <c r="L65">
-        <v>180</v>
+        <v>167.5</v>
       </c>
       <c r="M65">
         <v>225</v>
@@ -4335,19 +4338,19 @@
         <v>5631468</v>
       </c>
       <c r="Q65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4364,28 +4367,28 @@
         <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F66">
-        <v>0.01</v>
+        <v>0.0095</v>
       </c>
       <c r="G66">
-        <v>0.108923076923077</v>
+        <v>0.101714285714286</v>
       </c>
       <c r="H66">
         <v>5.09</v>
       </c>
       <c r="I66">
-        <v>0.0259</v>
+        <v>0.0257</v>
       </c>
       <c r="L66">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="M66">
-        <v>0.01766</v>
+        <v>0.01698</v>
       </c>
       <c r="N66">
-        <v>0.02302</v>
+        <v>0.02206</v>
       </c>
       <c r="O66">
         <v>1838908</v>
@@ -4394,19 +4397,19 @@
         <v>5631468</v>
       </c>
       <c r="Q66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4423,28 +4426,28 @@
         <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67">
-        <v>0.01</v>
+        <v>0.0095</v>
       </c>
       <c r="G67">
-        <v>0.108923076923077</v>
+        <v>0.101714285714286</v>
       </c>
       <c r="H67">
         <v>5.09</v>
       </c>
       <c r="I67">
-        <v>0.0259</v>
+        <v>0.0257</v>
       </c>
       <c r="L67">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="M67">
-        <v>0.01766</v>
+        <v>0.01698</v>
       </c>
       <c r="N67">
-        <v>0.02302</v>
+        <v>0.02206</v>
       </c>
       <c r="O67">
         <v>1838908</v>
@@ -4453,19 +4456,19 @@
         <v>5631468</v>
       </c>
       <c r="Q67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4482,28 +4485,28 @@
         <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68">
-        <v>0.00361</v>
+        <v>0.00372</v>
       </c>
       <c r="G68">
-        <v>0.38305399641797</v>
+        <v>0.353340610453563</v>
       </c>
       <c r="H68">
         <v>17.6923076923077</v>
       </c>
       <c r="I68">
-        <v>0.0299</v>
+        <v>0.02895</v>
       </c>
       <c r="L68">
-        <v>0.00568</v>
+        <v>0.00566</v>
       </c>
       <c r="M68">
-        <v>0.01266</v>
+        <v>0.01222</v>
       </c>
       <c r="N68">
-        <v>0.02414</v>
+        <v>0.02206</v>
       </c>
       <c r="O68">
         <v>1838908</v>
@@ -4512,19 +4515,19 @@
         <v>5631468</v>
       </c>
       <c r="Q68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4541,28 +4544,28 @@
         <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69">
-        <v>0.00361</v>
+        <v>0.00372</v>
       </c>
       <c r="G69">
-        <v>0.38305399641797</v>
+        <v>0.353340610453563</v>
       </c>
       <c r="H69">
         <v>17.6923076923077</v>
       </c>
       <c r="I69">
-        <v>0.0299</v>
+        <v>0.02895</v>
       </c>
       <c r="L69">
-        <v>0.00568</v>
+        <v>0.00566</v>
       </c>
       <c r="M69">
-        <v>0.01266</v>
+        <v>0.01222</v>
       </c>
       <c r="N69">
-        <v>0.02414</v>
+        <v>0.02206</v>
       </c>
       <c r="O69">
         <v>1838908</v>
@@ -4571,19 +4574,19 @@
         <v>5631468</v>
       </c>
       <c r="Q69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4600,13 +4603,13 @@
         <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70">
-        <v>0.00118</v>
+        <v>0.00091</v>
       </c>
       <c r="G70">
-        <v>0.0014798114806265</v>
+        <v>0.0012468602359525</v>
       </c>
       <c r="H70">
         <v>0.007</v>
@@ -4615,10 +4618,10 @@
         <v>0.003</v>
       </c>
       <c r="L70">
-        <v>0.0011</v>
+        <v>0.00084</v>
       </c>
       <c r="M70">
-        <v>0.00192</v>
+        <v>0.00167</v>
       </c>
       <c r="N70">
         <v>0.003</v>
@@ -4630,19 +4633,19 @@
         <v>5631468</v>
       </c>
       <c r="Q70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4659,13 +4662,13 @@
         <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71">
-        <v>0.00118</v>
+        <v>0.00091</v>
       </c>
       <c r="G71">
-        <v>0.0014798114806265</v>
+        <v>0.0012468602359525</v>
       </c>
       <c r="H71">
         <v>0.007</v>
@@ -4674,10 +4677,10 @@
         <v>0.003</v>
       </c>
       <c r="L71">
-        <v>0.0011</v>
+        <v>0.00084</v>
       </c>
       <c r="M71">
-        <v>0.00192</v>
+        <v>0.00167</v>
       </c>
       <c r="N71">
         <v>0.003</v>
@@ -4689,19 +4692,19 @@
         <v>5631468</v>
       </c>
       <c r="Q71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4715,28 +4718,28 @@
         <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F72">
-        <v>0.00831</v>
+        <v>0.00761</v>
       </c>
       <c r="G72">
-        <v>0.982507565213656</v>
+        <v>0.912096958942296</v>
       </c>
       <c r="H72">
         <v>50.602</v>
       </c>
       <c r="I72">
-        <v>0.0247</v>
+        <v>0.02337</v>
       </c>
       <c r="L72">
         <v>0.008999999999999999</v>
       </c>
       <c r="M72">
-        <v>0.01555</v>
+        <v>0.01357</v>
       </c>
       <c r="N72">
-        <v>0.02092</v>
+        <v>0.01803</v>
       </c>
       <c r="O72">
         <v>1838908</v>
@@ -4745,19 +4748,19 @@
         <v>5631468</v>
       </c>
       <c r="Q72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4771,28 +4774,28 @@
         <v>46</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73">
-        <v>0.00831</v>
+        <v>0.00761</v>
       </c>
       <c r="G73">
-        <v>0.982507565213656</v>
+        <v>0.912096958942296</v>
       </c>
       <c r="H73">
         <v>50.602</v>
       </c>
       <c r="I73">
-        <v>0.0247</v>
+        <v>0.02337</v>
       </c>
       <c r="L73">
         <v>0.008999999999999999</v>
       </c>
       <c r="M73">
-        <v>0.01555</v>
+        <v>0.01357</v>
       </c>
       <c r="N73">
-        <v>0.02092</v>
+        <v>0.01803</v>
       </c>
       <c r="O73">
         <v>1838908</v>
@@ -4801,19 +4804,19 @@
         <v>5631468</v>
       </c>
       <c r="Q73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4827,28 +4830,28 @@
         <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F74">
         <v>0.05</v>
       </c>
       <c r="G74">
-        <v>0.0523275496330669</v>
+        <v>0.0513529744230958</v>
       </c>
       <c r="H74">
         <v>0.13</v>
       </c>
       <c r="I74">
-        <v>0.1</v>
+        <v>0.096</v>
       </c>
       <c r="L74">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M74">
         <v>0.06</v>
       </c>
       <c r="N74">
-        <v>0.082</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="O74">
         <v>1838908</v>
@@ -4857,19 +4860,19 @@
         <v>5631468</v>
       </c>
       <c r="Q74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4883,28 +4886,28 @@
         <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F75">
         <v>0.05</v>
       </c>
       <c r="G75">
-        <v>0.0523275496330669</v>
+        <v>0.0513529744230958</v>
       </c>
       <c r="H75">
         <v>0.13</v>
       </c>
       <c r="I75">
-        <v>0.1</v>
+        <v>0.096</v>
       </c>
       <c r="L75">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M75">
         <v>0.06</v>
       </c>
       <c r="N75">
-        <v>0.082</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="O75">
         <v>1838908</v>
@@ -4913,19 +4916,19 @@
         <v>5631468</v>
       </c>
       <c r="Q75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -4939,25 +4942,25 @@
         <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F76">
         <v>0.008999999999999999</v>
       </c>
       <c r="G76">
-        <v>0.0136333333333333</v>
+        <v>0.0136470588235294</v>
       </c>
       <c r="H76">
         <v>0.029</v>
       </c>
       <c r="I76">
-        <v>0.026</v>
+        <v>0.0268</v>
       </c>
       <c r="L76">
-        <v>0.008</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M76">
-        <v>0.0232</v>
+        <v>0.02416</v>
       </c>
       <c r="N76">
         <v>0.026</v>
@@ -4969,19 +4972,19 @@
         <v>5631468</v>
       </c>
       <c r="Q76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -4995,25 +4998,25 @@
         <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F77">
         <v>0.008999999999999999</v>
       </c>
       <c r="G77">
-        <v>0.0136333333333333</v>
+        <v>0.0136470588235294</v>
       </c>
       <c r="H77">
         <v>0.029</v>
       </c>
       <c r="I77">
-        <v>0.026</v>
+        <v>0.0268</v>
       </c>
       <c r="L77">
-        <v>0.008</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M77">
-        <v>0.0232</v>
+        <v>0.02416</v>
       </c>
       <c r="N77">
         <v>0.026</v>
@@ -5025,19 +5028,19 @@
         <v>5631468</v>
       </c>
       <c r="Q77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5054,7 +5057,7 @@
         <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F78">
         <v>157.5</v>
@@ -5069,7 +5072,7 @@
         <v>308</v>
       </c>
       <c r="L78">
-        <v>180</v>
+        <v>152.5</v>
       </c>
       <c r="M78">
         <v>233.2</v>
@@ -5084,19 +5087,19 @@
         <v>5631468</v>
       </c>
       <c r="Q78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5113,28 +5116,28 @@
         <v>47</v>
       </c>
       <c r="E79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F79">
         <v>0.008999999999999999</v>
       </c>
       <c r="G79">
-        <v>0.0125192307692308</v>
+        <v>0.0121964285714286</v>
       </c>
       <c r="H79">
         <v>0.078</v>
       </c>
       <c r="I79">
-        <v>0.0259</v>
+        <v>0.0257</v>
       </c>
       <c r="L79">
         <v>0.008500000000000001</v>
       </c>
       <c r="M79">
-        <v>0.018</v>
+        <v>0.01798</v>
       </c>
       <c r="N79">
-        <v>0.02368</v>
+        <v>0.02304</v>
       </c>
       <c r="O79">
         <v>1838908</v>
@@ -5143,19 +5146,19 @@
         <v>5631468</v>
       </c>
       <c r="Q79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5172,28 +5175,28 @@
         <v>47</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F80">
         <v>0.008999999999999999</v>
       </c>
       <c r="G80">
-        <v>0.0125192307692308</v>
+        <v>0.0121964285714286</v>
       </c>
       <c r="H80">
         <v>0.078</v>
       </c>
       <c r="I80">
-        <v>0.0259</v>
+        <v>0.0257</v>
       </c>
       <c r="L80">
         <v>0.008500000000000001</v>
       </c>
       <c r="M80">
-        <v>0.018</v>
+        <v>0.01798</v>
       </c>
       <c r="N80">
-        <v>0.02368</v>
+        <v>0.02304</v>
       </c>
       <c r="O80">
         <v>1838908</v>
@@ -5202,19 +5205,19 @@
         <v>5631468</v>
       </c>
       <c r="Q80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5231,28 +5234,28 @@
         <v>47</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F81">
-        <v>0.00281</v>
+        <v>0.00295</v>
       </c>
       <c r="G81">
-        <v>0.0058380233983024</v>
+        <v>0.0056719551644034</v>
       </c>
       <c r="H81">
         <v>0.0362045582721472</v>
       </c>
       <c r="I81">
-        <v>0.02613</v>
+        <v>0.02519</v>
       </c>
       <c r="L81">
-        <v>0.0037</v>
+        <v>0.00436</v>
       </c>
       <c r="M81">
-        <v>0.01107</v>
+        <v>0.00997</v>
       </c>
       <c r="N81">
-        <v>0.01874</v>
+        <v>0.01736</v>
       </c>
       <c r="O81">
         <v>1838908</v>
@@ -5261,19 +5264,19 @@
         <v>5631468</v>
       </c>
       <c r="Q81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5290,28 +5293,28 @@
         <v>47</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F82">
-        <v>0.00281</v>
+        <v>0.00295</v>
       </c>
       <c r="G82">
-        <v>0.0058380233983024</v>
+        <v>0.0056719551644034</v>
       </c>
       <c r="H82">
         <v>0.0362045582721472</v>
       </c>
       <c r="I82">
-        <v>0.02613</v>
+        <v>0.02519</v>
       </c>
       <c r="L82">
-        <v>0.0037</v>
+        <v>0.00436</v>
       </c>
       <c r="M82">
-        <v>0.01107</v>
+        <v>0.00997</v>
       </c>
       <c r="N82">
-        <v>0.01874</v>
+        <v>0.01736</v>
       </c>
       <c r="O82">
         <v>1838908</v>
@@ -5320,19 +5323,19 @@
         <v>5631468</v>
       </c>
       <c r="Q82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5349,13 +5352,13 @@
         <v>47</v>
       </c>
       <c r="E83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F83">
-        <v>0.00128</v>
+        <v>0.00101</v>
       </c>
       <c r="G83">
-        <v>0.0015319372094318</v>
+        <v>0.0013096193502759</v>
       </c>
       <c r="H83">
         <v>0.007</v>
@@ -5364,10 +5367,10 @@
         <v>0.003</v>
       </c>
       <c r="L83">
-        <v>0.00109</v>
+        <v>0.001</v>
       </c>
       <c r="M83">
-        <v>0.002</v>
+        <v>0.00187</v>
       </c>
       <c r="N83">
         <v>0.003</v>
@@ -5379,19 +5382,19 @@
         <v>5631468</v>
       </c>
       <c r="Q83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5408,13 +5411,13 @@
         <v>47</v>
       </c>
       <c r="E84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F84">
-        <v>0.00128</v>
+        <v>0.00101</v>
       </c>
       <c r="G84">
-        <v>0.0015319372094318</v>
+        <v>0.0013096193502759</v>
       </c>
       <c r="H84">
         <v>0.007</v>
@@ -5423,10 +5426,10 @@
         <v>0.003</v>
       </c>
       <c r="L84">
-        <v>0.00109</v>
+        <v>0.001</v>
       </c>
       <c r="M84">
-        <v>0.002</v>
+        <v>0.00187</v>
       </c>
       <c r="N84">
         <v>0.003</v>
@@ -5438,19 +5441,19 @@
         <v>5631468</v>
       </c>
       <c r="Q84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5464,28 +5467,28 @@
         <v>47</v>
       </c>
       <c r="E85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F85">
-        <v>0.00675</v>
+        <v>0.00625</v>
       </c>
       <c r="G85">
-        <v>0.0082469282836771</v>
+        <v>0.0075550349790515</v>
       </c>
       <c r="H85">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="I85">
-        <v>0.02022</v>
+        <v>0.01785</v>
       </c>
       <c r="L85">
         <v>0.007</v>
       </c>
       <c r="M85">
-        <v>0.01278</v>
+        <v>0.01223</v>
       </c>
       <c r="N85">
-        <v>0.01833</v>
+        <v>0.01714</v>
       </c>
       <c r="O85">
         <v>1838908</v>
@@ -5494,19 +5497,19 @@
         <v>5631468</v>
       </c>
       <c r="Q85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5520,28 +5523,28 @@
         <v>47</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F86">
-        <v>0.00675</v>
+        <v>0.00625</v>
       </c>
       <c r="G86">
-        <v>0.0082469282836771</v>
+        <v>0.0075550349790515</v>
       </c>
       <c r="H86">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="I86">
-        <v>0.02022</v>
+        <v>0.01785</v>
       </c>
       <c r="L86">
         <v>0.007</v>
       </c>
       <c r="M86">
-        <v>0.01278</v>
+        <v>0.01223</v>
       </c>
       <c r="N86">
-        <v>0.01833</v>
+        <v>0.01714</v>
       </c>
       <c r="O86">
         <v>1838908</v>
@@ -5550,19 +5553,19 @@
         <v>5631468</v>
       </c>
       <c r="Q86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5576,19 +5579,19 @@
         <v>47</v>
       </c>
       <c r="E87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F87">
         <v>0.05</v>
       </c>
       <c r="G87">
-        <v>0.05575</v>
+        <v>0.0547727272727273</v>
       </c>
       <c r="H87">
         <v>0.13</v>
       </c>
       <c r="I87">
-        <v>0.115</v>
+        <v>0.109</v>
       </c>
       <c r="L87">
         <v>0.05</v>
@@ -5597,7 +5600,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N87">
-        <v>0.08599999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="O87">
         <v>1838908</v>
@@ -5606,19 +5609,19 @@
         <v>5631468</v>
       </c>
       <c r="Q87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5632,19 +5635,19 @@
         <v>47</v>
       </c>
       <c r="E88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F88">
         <v>0.05</v>
       </c>
       <c r="G88">
-        <v>0.05575</v>
+        <v>0.0547727272727273</v>
       </c>
       <c r="H88">
         <v>0.13</v>
       </c>
       <c r="I88">
-        <v>0.115</v>
+        <v>0.109</v>
       </c>
       <c r="L88">
         <v>0.05</v>
@@ -5653,7 +5656,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N88">
-        <v>0.08599999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="O88">
         <v>1838908</v>
@@ -5662,19 +5665,19 @@
         <v>5631468</v>
       </c>
       <c r="Q88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5688,28 +5691,28 @@
         <v>47</v>
       </c>
       <c r="E89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="G89">
-        <v>0.0138</v>
+        <v>0.0137954545454545</v>
       </c>
       <c r="H89">
         <v>0.029</v>
       </c>
       <c r="I89">
-        <v>0.026</v>
+        <v>0.0263</v>
       </c>
       <c r="L89">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M89">
-        <v>0.022</v>
+        <v>0.02204</v>
       </c>
       <c r="N89">
-        <v>0.0253</v>
+        <v>0.02598</v>
       </c>
       <c r="O89">
         <v>1838908</v>
@@ -5718,19 +5721,19 @@
         <v>5631468</v>
       </c>
       <c r="Q89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5744,49 +5747,798 @@
         <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="G90">
-        <v>0.0138</v>
+        <v>0.0137954545454545</v>
       </c>
       <c r="H90">
         <v>0.029</v>
       </c>
       <c r="I90">
+        <v>0.0263</v>
+      </c>
+      <c r="L90">
+        <v>0.01</v>
+      </c>
+      <c r="M90">
+        <v>0.02204</v>
+      </c>
+      <c r="N90">
+        <v>0.02598</v>
+      </c>
+      <c r="O90">
+        <v>1838908</v>
+      </c>
+      <c r="P90">
+        <v>5631468</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>50</v>
+      </c>
+      <c r="R90" t="s">
+        <v>51</v>
+      </c>
+      <c r="S90" t="s">
+        <v>52</v>
+      </c>
+      <c r="T90" t="s">
+        <v>53</v>
+      </c>
+      <c r="U90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91" t="s">
+        <v>49</v>
+      </c>
+      <c r="F91">
+        <v>155</v>
+      </c>
+      <c r="G91">
+        <v>168.432692307692</v>
+      </c>
+      <c r="H91">
+        <v>440</v>
+      </c>
+      <c r="I91">
+        <v>309.5</v>
+      </c>
+      <c r="L91">
+        <v>152.5</v>
+      </c>
+      <c r="M91">
+        <v>240</v>
+      </c>
+      <c r="N91">
+        <v>285.2</v>
+      </c>
+      <c r="O91">
+        <v>1838908</v>
+      </c>
+      <c r="P91">
+        <v>5631468</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>50</v>
+      </c>
+      <c r="R91" t="s">
+        <v>51</v>
+      </c>
+      <c r="S91" t="s">
+        <v>52</v>
+      </c>
+      <c r="T91" t="s">
+        <v>53</v>
+      </c>
+      <c r="U91" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92">
+        <v>0.008</v>
+      </c>
+      <c r="G92">
+        <v>0.0117857142857143</v>
+      </c>
+      <c r="H92">
+        <v>0.078</v>
+      </c>
+      <c r="I92">
+        <v>0.0251</v>
+      </c>
+      <c r="L92">
+        <v>0.008</v>
+      </c>
+      <c r="M92">
+        <v>0.01798</v>
+      </c>
+      <c r="N92">
+        <v>0.02202</v>
+      </c>
+      <c r="O92">
+        <v>1838908</v>
+      </c>
+      <c r="P92">
+        <v>5631468</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>50</v>
+      </c>
+      <c r="R92" t="s">
+        <v>51</v>
+      </c>
+      <c r="S92" t="s">
+        <v>52</v>
+      </c>
+      <c r="T92" t="s">
+        <v>53</v>
+      </c>
+      <c r="U92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93" t="s">
+        <v>49</v>
+      </c>
+      <c r="F93">
+        <v>0.008</v>
+      </c>
+      <c r="G93">
+        <v>0.0117857142857143</v>
+      </c>
+      <c r="H93">
+        <v>0.078</v>
+      </c>
+      <c r="I93">
+        <v>0.0251</v>
+      </c>
+      <c r="L93">
+        <v>0.008</v>
+      </c>
+      <c r="M93">
+        <v>0.01798</v>
+      </c>
+      <c r="N93">
+        <v>0.02202</v>
+      </c>
+      <c r="O93">
+        <v>1838908</v>
+      </c>
+      <c r="P93">
+        <v>5631468</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>50</v>
+      </c>
+      <c r="R93" t="s">
+        <v>51</v>
+      </c>
+      <c r="S93" t="s">
+        <v>52</v>
+      </c>
+      <c r="T93" t="s">
+        <v>53</v>
+      </c>
+      <c r="U93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94">
+        <v>0.0024</v>
+      </c>
+      <c r="G94">
+        <v>0.0050114156025437</v>
+      </c>
+      <c r="H94">
+        <v>0.0432617149649904</v>
+      </c>
+      <c r="I94">
+        <v>0.02519</v>
+      </c>
+      <c r="L94">
+        <v>0.0033</v>
+      </c>
+      <c r="M94">
+        <v>0.00542</v>
+      </c>
+      <c r="N94">
+        <v>0.01748</v>
+      </c>
+      <c r="O94">
+        <v>1838908</v>
+      </c>
+      <c r="P94">
+        <v>5631468</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>50</v>
+      </c>
+      <c r="R94" t="s">
+        <v>51</v>
+      </c>
+      <c r="S94" t="s">
+        <v>52</v>
+      </c>
+      <c r="T94" t="s">
+        <v>53</v>
+      </c>
+      <c r="U94" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95">
+        <v>0.0024</v>
+      </c>
+      <c r="G95">
+        <v>0.0050114156025437</v>
+      </c>
+      <c r="H95">
+        <v>0.0432617149649904</v>
+      </c>
+      <c r="I95">
+        <v>0.02519</v>
+      </c>
+      <c r="L95">
+        <v>0.0033</v>
+      </c>
+      <c r="M95">
+        <v>0.00542</v>
+      </c>
+      <c r="N95">
+        <v>0.01748</v>
+      </c>
+      <c r="O95">
+        <v>1838908</v>
+      </c>
+      <c r="P95">
+        <v>5631468</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>50</v>
+      </c>
+      <c r="R95" t="s">
+        <v>51</v>
+      </c>
+      <c r="S95" t="s">
+        <v>52</v>
+      </c>
+      <c r="T95" t="s">
+        <v>53</v>
+      </c>
+      <c r="U95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96">
+        <v>0.001</v>
+      </c>
+      <c r="G96">
+        <v>0.0012774846728362</v>
+      </c>
+      <c r="H96">
+        <v>0.007</v>
+      </c>
+      <c r="I96">
+        <v>0.0037</v>
+      </c>
+      <c r="L96">
+        <v>0.00099</v>
+      </c>
+      <c r="M96">
+        <v>0.0018</v>
+      </c>
+      <c r="N96">
+        <v>0.003</v>
+      </c>
+      <c r="O96">
+        <v>1838908</v>
+      </c>
+      <c r="P96">
+        <v>5631468</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>50</v>
+      </c>
+      <c r="R96" t="s">
+        <v>51</v>
+      </c>
+      <c r="S96" t="s">
+        <v>52</v>
+      </c>
+      <c r="T96" t="s">
+        <v>53</v>
+      </c>
+      <c r="U96" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97">
+        <v>0.001</v>
+      </c>
+      <c r="G97">
+        <v>0.0012774846728362</v>
+      </c>
+      <c r="H97">
+        <v>0.007</v>
+      </c>
+      <c r="I97">
+        <v>0.0037</v>
+      </c>
+      <c r="L97">
+        <v>0.00099</v>
+      </c>
+      <c r="M97">
+        <v>0.0018</v>
+      </c>
+      <c r="N97">
+        <v>0.003</v>
+      </c>
+      <c r="O97">
+        <v>1838908</v>
+      </c>
+      <c r="P97">
+        <v>5631468</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>50</v>
+      </c>
+      <c r="R97" t="s">
+        <v>51</v>
+      </c>
+      <c r="S97" t="s">
+        <v>52</v>
+      </c>
+      <c r="T97" t="s">
+        <v>53</v>
+      </c>
+      <c r="U97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98">
+        <v>0.0045</v>
+      </c>
+      <c r="G98">
+        <v>0.0070105952144486</v>
+      </c>
+      <c r="H98">
+        <v>0.05</v>
+      </c>
+      <c r="I98">
+        <v>0.0243</v>
+      </c>
+      <c r="L98">
+        <v>0.00575</v>
+      </c>
+      <c r="M98">
+        <v>0.00899</v>
+      </c>
+      <c r="N98">
+        <v>0.01751</v>
+      </c>
+      <c r="O98">
+        <v>1838908</v>
+      </c>
+      <c r="P98">
+        <v>5631468</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>50</v>
+      </c>
+      <c r="R98" t="s">
+        <v>51</v>
+      </c>
+      <c r="S98" t="s">
+        <v>52</v>
+      </c>
+      <c r="T98" t="s">
+        <v>53</v>
+      </c>
+      <c r="U98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99">
+        <v>0.0045</v>
+      </c>
+      <c r="G99">
+        <v>0.0070105952144486</v>
+      </c>
+      <c r="H99">
+        <v>0.05</v>
+      </c>
+      <c r="I99">
+        <v>0.0243</v>
+      </c>
+      <c r="L99">
+        <v>0.00575</v>
+      </c>
+      <c r="M99">
+        <v>0.00899</v>
+      </c>
+      <c r="N99">
+        <v>0.01751</v>
+      </c>
+      <c r="O99">
+        <v>1838908</v>
+      </c>
+      <c r="P99">
+        <v>5631468</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>50</v>
+      </c>
+      <c r="R99" t="s">
+        <v>51</v>
+      </c>
+      <c r="S99" t="s">
+        <v>52</v>
+      </c>
+      <c r="T99" t="s">
+        <v>53</v>
+      </c>
+      <c r="U99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" t="s">
+        <v>49</v>
+      </c>
+      <c r="F100">
+        <v>0.05</v>
+      </c>
+      <c r="G100">
+        <v>0.0544595742781426</v>
+      </c>
+      <c r="H100">
+        <v>0.13</v>
+      </c>
+      <c r="I100">
+        <v>0.107</v>
+      </c>
+      <c r="L100">
+        <v>0.05</v>
+      </c>
+      <c r="M100">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N100">
+        <v>0.0902</v>
+      </c>
+      <c r="O100">
+        <v>1838908</v>
+      </c>
+      <c r="P100">
+        <v>5631468</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>50</v>
+      </c>
+      <c r="R100" t="s">
+        <v>51</v>
+      </c>
+      <c r="S100" t="s">
+        <v>52</v>
+      </c>
+      <c r="T100" t="s">
+        <v>53</v>
+      </c>
+      <c r="U100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" t="s">
+        <v>49</v>
+      </c>
+      <c r="F101">
+        <v>0.05</v>
+      </c>
+      <c r="G101">
+        <v>0.0544595742781426</v>
+      </c>
+      <c r="H101">
+        <v>0.13</v>
+      </c>
+      <c r="I101">
+        <v>0.107</v>
+      </c>
+      <c r="L101">
+        <v>0.05</v>
+      </c>
+      <c r="M101">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N101">
+        <v>0.0902</v>
+      </c>
+      <c r="O101">
+        <v>1838908</v>
+      </c>
+      <c r="P101">
+        <v>5631468</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>50</v>
+      </c>
+      <c r="R101" t="s">
+        <v>51</v>
+      </c>
+      <c r="S101" t="s">
+        <v>52</v>
+      </c>
+      <c r="T101" t="s">
+        <v>53</v>
+      </c>
+      <c r="U101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102">
+        <v>0.01</v>
+      </c>
+      <c r="G102">
+        <v>0.0133571428571429</v>
+      </c>
+      <c r="H102">
+        <v>0.029</v>
+      </c>
+      <c r="I102">
         <v>0.026</v>
       </c>
-      <c r="L90">
-        <v>0.0095</v>
-      </c>
-      <c r="M90">
-        <v>0.022</v>
-      </c>
-      <c r="N90">
-        <v>0.0253</v>
-      </c>
-      <c r="O90">
-        <v>1838908</v>
-      </c>
-      <c r="P90">
-        <v>5631468</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>49</v>
-      </c>
-      <c r="R90" t="s">
-        <v>50</v>
-      </c>
-      <c r="S90" t="s">
-        <v>51</v>
-      </c>
-      <c r="T90" t="s">
-        <v>52</v>
-      </c>
-      <c r="U90" t="s">
-        <v>57</v>
+      <c r="L102">
+        <v>0.01</v>
+      </c>
+      <c r="M102">
+        <v>0.021</v>
+      </c>
+      <c r="N102">
+        <v>0.02502</v>
+      </c>
+      <c r="O102">
+        <v>1838908</v>
+      </c>
+      <c r="P102">
+        <v>5631468</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>50</v>
+      </c>
+      <c r="R102" t="s">
+        <v>51</v>
+      </c>
+      <c r="S102" t="s">
+        <v>52</v>
+      </c>
+      <c r="T102" t="s">
+        <v>53</v>
+      </c>
+      <c r="U102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103">
+        <v>0.01</v>
+      </c>
+      <c r="G103">
+        <v>0.0133571428571429</v>
+      </c>
+      <c r="H103">
+        <v>0.029</v>
+      </c>
+      <c r="I103">
+        <v>0.026</v>
+      </c>
+      <c r="L103">
+        <v>0.01</v>
+      </c>
+      <c r="M103">
+        <v>0.021</v>
+      </c>
+      <c r="N103">
+        <v>0.02502</v>
+      </c>
+      <c r="O103">
+        <v>1838908</v>
+      </c>
+      <c r="P103">
+        <v>5631468</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>50</v>
+      </c>
+      <c r="R103" t="s">
+        <v>51</v>
+      </c>
+      <c r="S103" t="s">
+        <v>52</v>
+      </c>
+      <c r="T103" t="s">
+        <v>53</v>
+      </c>
+      <c r="U103" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
